--- a/biology/Zoologie/Callobius_bennetti/Callobius_bennetti.xlsx
+++ b/biology/Zoologie/Callobius_bennetti/Callobius_bennetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callobius bennetti est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callobius bennetti est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Minnesota, en Iowa, au Wisconsin, en Illinois, au Michigan, en Indiana, en Ohio, au Tennessee, en Caroline du Nord, en Virginie, en Virginie-Occidentale, au Maryland, en Pennsylvanie, au New Jersey, dans l'État de New York, au Connecticut, au Massachusetts, au Vermont, au New Hampshire et au Maine et au Canada en Terre-Neuve-et-Labrador, au Nouveau-Brunswick, en Nouvelle-Écosse, au Québec, en Ontario et Manitoba[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Minnesota, en Iowa, au Wisconsin, en Illinois, au Michigan, en Indiana, en Ohio, au Tennessee, en Caroline du Nord, en Virginie, en Virginie-Occidentale, au Maryland, en Pennsylvanie, au New Jersey, dans l'État de New York, au Connecticut, au Massachusetts, au Vermont, au New Hampshire et au Maine et au Canada en Terre-Neuve-et-Labrador, au Nouveau-Brunswick, en Nouvelle-Écosse, au Québec, en Ontario et Manitoba,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Joseph Bennett[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de John Joseph Bennett.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Blackwall, 1846 : Notice of spiders captured by Professor Potter in Canada, with descriptions of such species as appear to be new to science. Annals and Magazine of Natural History, vol. 17, p. 30-44, 76-82 (texte intégral).</t>
         </is>
